--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,40 +40,56 @@
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -85,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -147,190 +163,190 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_rna_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10932H12244O6763N4389P1143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna[c] ==&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c] ==&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * (rna[c] / (k_m + rna[c]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_rna_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10932H12244O6763N4389P1143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna[c] ==&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c] ==&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * (rna[c] / (k_m + rna[c]))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -690,7 +706,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -776,7 +792,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -786,27 +802,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -817,13 +833,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.00770163533955495</v>
@@ -831,13 +847,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.0320901472481456</v>
@@ -848,13 +864,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>155370.480849579</v>
@@ -862,13 +878,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>431.58466902661</v>
@@ -917,13 +933,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -973,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1012,9 +1028,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1538461538462"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1032,10 +1048,10 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1119,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1178,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>94</v>
@@ -1241,7 +1257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1262,16 +1278,16 @@
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>106</v>
@@ -1377,20 +1393,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1411,61 +1427,58 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1505,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1516,10 +1529,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>6.7E-017</v>
@@ -1557,9 +1570,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1571,19 +1584,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1594,56 +1607,56 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>348724.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>40031.7</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>30712200000</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1715,13 +1728,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1732,35 +1745,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1851,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1887,10 +1900,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -1903,19 +1916,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1926,16 +1939,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>0</v>
@@ -1943,16 +1956,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>0</v>
@@ -1960,16 +1973,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0</v>
@@ -1977,16 +1990,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>0</v>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,83 +13,100 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -253,6 +270,21 @@
     <t xml:space="preserve">pseudo_species</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -262,18 +294,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">rna[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">molecules</t>
   </si>
   <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
@@ -341,12 +364,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -440,7 +457,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -468,6 +485,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -519,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,6 +559,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -706,7 +735,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -790,6 +819,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -797,32 +961,32 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -836,10 +1000,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.00770163533955495</v>
@@ -850,10 +1014,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.0320901472481456</v>
@@ -864,13 +1028,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>155370.480849579</v>
@@ -878,13 +1042,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>431.58466902661</v>
@@ -905,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -936,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -961,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -969,9 +1133,9 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -989,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1011,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1030,7 +1194,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1048,10 +1212,10 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1107,7 +1271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1135,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1154,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1240,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1257,7 +1421,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1278,16 +1442,16 @@
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>106</v>
@@ -1297,7 +1461,7 @@
       <c r="A2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>272634</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1395,7 +1559,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1405,8 +1569,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1572,7 +1736,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1711,6 +1875,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1718,7 +1967,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1728,13 +1977,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1745,86 +1994,39 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1864,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1888,24 +2090,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1915,98 +2112,15 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>58</v>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,16 +19,16 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -41,72 +41,88 @@
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -118,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -180,187 +196,187 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_rna_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10932H12244O6763N4389P1143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna[c] ==&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c] ==&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * (rna[c] / (k_m + rna[c]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * prot[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_rna_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10932H12244O6763N4389P1143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna[c] ==&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c] ==&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * (rna[c] / (k_m + rna[c]))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * rna[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * prot[c]</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -735,7 +751,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -831,10 +847,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -847,19 +863,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -870,16 +886,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -887,16 +903,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -904,16 +920,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>0</v>
@@ -921,16 +937,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -966,27 +982,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -997,13 +1013,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.00770163533955495</v>
@@ -1011,13 +1027,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.0320901472481456</v>
@@ -1028,13 +1044,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>155370.480849579</v>
@@ -1042,13 +1058,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>431.58466902661</v>
@@ -1074,14 +1090,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,23 +1113,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1130,14 +1140,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,17 +1163,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1194,7 +1210,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1212,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1299,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1358,7 +1374,7 @@
         <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>94</v>
@@ -1421,7 +1437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1442,16 +1458,16 @@
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>106</v>
@@ -1557,20 +1573,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1588,61 +1604,58 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:F1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1682,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1693,10 +1706,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>6.7E-017</v>
@@ -1736,7 +1749,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1748,19 +1761,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1771,56 +1784,56 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>348724.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>40031.7</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>30712200000</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1877,7 +1890,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1887,8 +1900,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -1913,35 +1926,35 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1977,13 +1990,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1994,35 +2007,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2113,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -55,10 +55,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -225,64 +225,82 @@
     <t>protein degradation</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>rna</t>
@@ -540,10 +558,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -582,9 +600,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,48 +622,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,30 +653,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,8 +682,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,14 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +778,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,25 +880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,43 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,73 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,30 +957,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -983,10 +977,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1010,17 +1002,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,141 +1048,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1754,22 +1772,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1795,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -1812,7 +1830,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1820,7 +1838,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -1829,7 +1847,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -1837,7 +1855,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -1846,7 +1864,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -1897,19 +1915,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -1926,22 +1944,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1949,22 +1967,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1972,22 +1990,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1995,22 +2013,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2057,13 +2075,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2111,13 +2129,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2169,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2235,16 +2253,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2261,13 +2279,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2278,89 +2296,89 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2400,10 +2418,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2454,28 +2472,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2523,46 +2541,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2752,30 +2770,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1028" width="8.575" style="1"/>
-    <col min="1029" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2800,52 +2818,67 @@
         <v>45</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="8">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2">
+  <autoFilter ref="A1:H2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2885,19 +2918,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2914,13 +2947,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2" s="8">
         <v>348724.1</v>
@@ -2929,21 +2962,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8">
         <v>40031.7</v>
@@ -2952,24 +2985,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3010,13 +3043,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3033,44 +3066,44 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3110,19 +3143,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3139,53 +3172,53 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3225,10 +3258,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3280,10 +3313,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -396,7 +396,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>==&gt; rna[c]</t>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>k_cat_prot_deg * prot[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -557,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -595,45 +601,32 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,6 +645,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -661,24 +668,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,35 +689,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,14 +712,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,48 +772,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,13 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,61 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +826,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,31 +940,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +963,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -971,15 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,8 +1008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,6 +1021,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,150 +1063,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,7 +1756,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2052,14 +2058,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2067,7 +2073,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,15 +2090,21 @@
         <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2135,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2187,13 +2199,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>77</v>
@@ -2256,10 +2268,10 @@
         <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>77</v>
@@ -2279,10 +2291,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -2296,10 +2308,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>106</v>
@@ -2308,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -2316,7 +2328,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
@@ -2327,10 +2339,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
@@ -2341,38 +2353,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
@@ -2472,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>77</v>
@@ -2481,19 +2493,19 @@
         <v>63</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2541,46 +2553,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2772,7 +2784,7 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -237,310 +237,325 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <t>RNA (MPN001)</t>
+  </si>
+  <si>
+    <t>AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
+  </si>
+  <si>
+    <t>C10932H12244O6763N4389P1143</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>protein (MPN001)</t>
+  </si>
+  <si>
+    <t>MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>rna[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>prot[c]</t>
+  </si>
+  <si>
+    <t>cell[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-cell[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>==&gt; rna[c]</t>
+  </si>
+  <si>
+    <t>==&gt; prot[c]</t>
+  </si>
+  <si>
+    <t>rna_degradation</t>
+  </si>
+  <si>
+    <t>rna[c] ==&gt;</t>
+  </si>
+  <si>
+    <t>prot_degradation</t>
+  </si>
+  <si>
+    <t>prot[c] ==&gt;</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transcription-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_trn</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>translation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trl * (rna[c] / (K_m_trl * Avogadro * volume_c + rna[c]))</t>
+  </si>
+  <si>
+    <t>rna_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_rna_deg * rna[c]</t>
+  </si>
+  <si>
+    <t>prot_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg * prot[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
+  </si>
+  <si>
+    <t>cell cycle length</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>fraction dry weight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_cat_trl</t>
+  </si>
+  <si>
+    <t>k_cat_rna_deg</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg</t>
+  </si>
+  <si>
+    <t>K_m_trl</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>rna</t>
-  </si>
-  <si>
-    <t>RNA (MPN001)</t>
-  </si>
-  <si>
-    <t>AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
-  </si>
-  <si>
-    <t>C10932H12244O6763N4389P1143</t>
-  </si>
-  <si>
-    <t>prot</t>
-  </si>
-  <si>
-    <t>protein (MPN001)</t>
-  </si>
-  <si>
-    <t>MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>rna[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>prot[c]</t>
-  </si>
-  <si>
-    <t>cell[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-rna[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-prot[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-cell[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>==&gt; rna[c]</t>
-  </si>
-  <si>
-    <t>==&gt; prot[c]</t>
-  </si>
-  <si>
-    <t>rna_degradation</t>
-  </si>
-  <si>
-    <t>rna[c] ==&gt;</t>
-  </si>
-  <si>
-    <t>prot_degradation</t>
-  </si>
-  <si>
-    <t>prot[c] ==&gt;</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transcription-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_trn</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>translation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trl * (rna[c] / (K_m_trl + rna[c]))</t>
-  </si>
-  <si>
-    <t>rna_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_rna_deg * rna[c]</t>
-  </si>
-  <si>
-    <t>prot_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg * prot[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>cell cycle length</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_cat_trl</t>
-  </si>
-  <si>
-    <t>k_cat_rna_deg</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg</t>
-  </si>
-  <si>
-    <t>K_m_trl</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -563,10 +578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -609,16 +624,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,6 +664,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,59 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,15 +715,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,25 +766,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -772,19 +787,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,19 +829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +877,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,55 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,54 +968,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +990,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -986,6 +1016,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,199 +1078,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1227,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1222,13 +1243,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1632,7 +1647,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.575" style="1"/>
-    <col min="2" max="2" width="18.3166666666667" style="10"/>
+    <col min="2" max="2" width="18.3166666666667" style="4"/>
     <col min="3" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -1649,7 +1664,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1657,7 +1672,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1665,7 +1680,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1673,7 +1688,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1681,7 +1696,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1689,7 +1704,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1712,7 +1727,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1763,7 +1778,7 @@
   <cols>
     <col min="1" max="1" width="15.9583333333333" style="1"/>
     <col min="2" max="2" width="18.2083333333333" style="1"/>
-    <col min="3" max="3" width="20.1416666666667" style="6"/>
+    <col min="3" max="3" width="20.1416666666667" style="8"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.10833333333333" style="1"/>
     <col min="6" max="1025" width="8.575" style="1"/>
@@ -1818,10 +1833,10 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1835,10 +1850,10 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1855,7 +1870,7 @@
       <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1872,7 +1887,7 @@
       <c r="D5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +1911,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1905,7 +1920,7 @@
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="27.6333333333333" style="1"/>
     <col min="4" max="5" width="12.625" style="1"/>
-    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="1" customWidth="1"/>
     <col min="7" max="9" width="12.625" style="1"/>
     <col min="10" max="10" width="8.575" style="1"/>
     <col min="11" max="12" width="12.625" style="1"/>
@@ -1927,13 +1942,13 @@
         <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -1967,9 +1982,9 @@
       <c r="G2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -1990,9 +2005,9 @@
       <c r="G3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -2013,9 +2028,9 @@
       <c r="G4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2036,14 +2051,14 @@
       <c r="G5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="8:10">
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5">
@@ -2060,7 +2075,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2084,10 +2099,10 @@
         <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>115</v>
@@ -2144,7 +2159,7 @@
         <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>117</v>
@@ -2192,34 +2207,34 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2236,17 +2251,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.3916666666667" style="1"/>
     <col min="2" max="2" width="12.625" style="1"/>
@@ -2265,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>119</v>
@@ -2274,7 +2289,7 @@
         <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2390,7 +2405,35 @@
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2487,25 +2530,25 @@
         <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2553,46 +2596,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2657,19 +2700,19 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A6">
@@ -2782,24 +2825,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1030" width="8.575" style="1"/>
+    <col min="1031" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2836,57 +2879,51 @@
         <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2930,19 +2967,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2959,62 +2996,62 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>348724.1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>40031.7</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3055,13 +3092,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3078,44 +3115,44 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3155,19 +3192,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3184,53 +3221,53 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3270,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3301,19 +3338,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3325,10 +3364,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -3341,6 +3380,17 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -75,10 +75,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -390,6 +390,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -402,6 +405,9 @@
     <t>==&gt; rna[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>==&gt; prot[c]</t>
   </si>
   <si>
@@ -433,9 +439,6 @@
   </si>
   <si>
     <t>k_cat_trn</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>translation-forward</t>
@@ -579,9 +582,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -624,21 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -646,6 +634,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,10 +655,76 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,81 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,9 +753,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -787,7 +790,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,55 +910,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,85 +952,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,15 +981,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1022,20 +1016,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,155 +1081,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,14 +1767,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1780,12 +1783,12 @@
     <col min="2" max="2" width="18.2083333333333" style="1"/>
     <col min="3" max="3" width="20.1416666666667" style="8"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.10833333333333" style="1"/>
-    <col min="6" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9.10833333333333" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,19 +1814,22 @@
         <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1834,13 +1840,16 @@
         <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
+      <c r="F2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1851,15 +1860,18 @@
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="F3" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -1868,15 +1880,18 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+      <c r="F4" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -1885,14 +1900,17 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
+      <c r="F5" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I5">
+  <autoFilter ref="A1:J5">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1936,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>61</v>
@@ -1965,22 +1983,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1988,22 +2006,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2011,22 +2029,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2034,22 +2052,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2105,10 +2123,10 @@
         <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2162,7 +2180,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2214,13 +2232,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>75</v>
@@ -2283,10 +2301,10 @@
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>75</v>
@@ -2306,13 +2324,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2323,89 +2341,89 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2413,31 +2431,31 @@
         <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H8">
+  <autoFilter ref="A1:H10">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2527,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>75</v>
@@ -2536,19 +2554,19 @@
         <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2596,46 +2614,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3340,7 +3358,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3394,7 +3412,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,44 +5,45 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -51,65 +52,65 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -177,7 +178,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>mpn_m129</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Mycoplasma pneumoniae M129</t>
@@ -192,6 +193,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -532,9 +548,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -584,8 +597,8 @@
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -619,6 +632,26 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -627,20 +660,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,15 +708,51 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,46 +767,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,45 +783,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,7 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,25 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +863,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,19 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,25 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,43 +977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,6 +994,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1043,17 +1074,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,154 +1094,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1248,6 +1261,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1659,7 +1675,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1767,9 +1783,77 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1796,31 +1880,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>19</v>
@@ -1831,82 +1915,82 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -1954,25 +2038,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -1983,22 +2067,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -2006,22 +2090,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2029,22 +2113,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2052,22 +2136,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2088,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -2114,25 +2198,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2147,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2174,19 +2258,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -2205,7 +2289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2232,22 +2316,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>19</v>
@@ -2266,7 +2350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -2298,22 +2382,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
@@ -2324,13 +2408,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2341,117 +2425,117 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2491,16 +2575,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2519,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2545,34 +2629,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>19</v>
@@ -2587,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2614,46 +2698,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2680,7 +2764,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="J6" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2743,6 +2827,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
+    <col min="1020" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G5"/>
@@ -2771,13 +2933,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -2788,46 +2950,46 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +3002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P2"/>
@@ -2867,40 +3029,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -2911,25 +3073,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="5">
         <v>4.58e-17</v>
@@ -2938,10 +3100,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +3116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K4"/>
@@ -2985,25 +3147,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3014,13 +3176,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
         <v>348724.1</v>
@@ -3029,21 +3191,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <v>40031.7</v>
@@ -3052,24 +3214,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I4"/>
@@ -3110,19 +3272,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -3133,44 +3295,44 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K4"/>
@@ -3210,25 +3372,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3239,53 +3401,53 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3325,16 +3487,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -3351,72 +3513,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D2">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -84,14 +84,14 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
@@ -484,7 +484,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -594,11 +594,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -632,26 +632,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -660,12 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -685,10 +662,70 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,17 +736,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,42 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,14 +774,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,31 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +827,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,109 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,13 +959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1001,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,22 +1010,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1041,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1067,15 +1061,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,141 +1079,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2294,12 +2294,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2831,7 +2831,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -208,6 +208,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -503,9 +509,6 @@
   </si>
   <si>
     <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>k_cat</t>
@@ -594,11 +597,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -632,37 +635,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -684,51 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -736,8 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,15 +692,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,15 +717,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,7 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,19 +818,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,19 +872,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +908,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,73 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,11 +1009,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +1050,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,185 +1089,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1809,16 +1812,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -1829,13 +1832,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1880,31 +1883,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>19</v>
@@ -1915,82 +1918,82 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2038,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2067,22 +2070,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -2090,22 +2093,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2113,22 +2116,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2136,22 +2139,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2198,25 +2201,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2258,19 +2261,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -2294,7 +2297,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2316,22 +2319,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>19</v>
@@ -2382,22 +2385,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
@@ -2408,13 +2411,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2425,117 +2428,117 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2575,16 +2578,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2629,34 +2632,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>19</v>
@@ -2698,46 +2701,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2829,15 +2832,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -2883,18 +2886,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2933,13 +2944,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -2950,46 +2961,46 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3029,40 +3040,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -3073,25 +3084,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5">
         <v>4.58e-17</v>
@@ -3100,10 +3111,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3147,25 +3158,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3176,13 +3187,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="5">
         <v>348724.1</v>
@@ -3191,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5">
         <v>40031.7</v>
@@ -3214,24 +3225,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3272,19 +3283,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -3295,44 +3306,44 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3372,25 +3383,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3401,53 +3412,53 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3487,16 +3498,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$4</definedName>
@@ -43,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -52,10 +53,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
@@ -100,17 +101,17 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -220,6 +221,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>mdl_transcription</t>
   </si>
   <si>
@@ -550,10 +554,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -597,11 +616,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -647,6 +666,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -655,38 +682,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,6 +708,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,6 +758,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -731,7 +774,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -745,25 +788,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,14 +798,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,25 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,19 +855,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +897,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,103 +987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,17 +1028,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,6 +1063,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,150 +1116,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,6 +1265,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1256,9 +1278,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1669,7 +1688,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.575" style="1"/>
-    <col min="2" max="2" width="18.3166666666667" style="4"/>
+    <col min="2" max="2" width="18.3166666666667" style="5"/>
     <col min="3" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -1686,7 +1705,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1694,7 +1713,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1702,7 +1721,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1710,7 +1729,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1718,7 +1737,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1726,7 +1745,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1749,7 +1768,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1786,25 +1805,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1812,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -1824,21 +1843,24 @@
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1854,28 +1876,28 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15.9583333333333" style="1"/>
     <col min="2" max="2" width="18.2083333333333" style="1"/>
-    <col min="3" max="3" width="20.1416666666667" style="8"/>
+    <col min="3" max="3" width="20.1416666666667" style="4"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.10833333333333" style="1"/>
-    <col min="7" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="7" max="1027" width="8.575" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1883,25 +1905,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
@@ -1910,90 +1932,93 @@
         <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>104</v>
+      <c r="D2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>106</v>
+      <c r="D3" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2009,14 +2034,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2026,14 +2051,14 @@
     <col min="3" max="3" width="27.6333333333333" style="1"/>
     <col min="4" max="5" width="12.625" style="1"/>
     <col min="6" max="6" width="50.25" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="1"/>
-    <col min="10" max="10" width="8.575" style="1"/>
-    <col min="11" max="12" width="12.625" style="1"/>
-    <col min="13" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="10" width="12.625" style="1"/>
+    <col min="11" max="11" width="8.575" style="1"/>
+    <col min="12" max="13" width="12.625" style="1"/>
+    <col min="14" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2041,19 +2066,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2062,108 +2087,116 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="8:10">
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="8:11">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5">
@@ -2178,14 +2211,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2193,7 +2226,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2201,19 +2234,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2222,9 +2255,12 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2237,23 +2273,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2261,13 +2297,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2276,9 +2312,12 @@
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2295,51 +2334,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2356,14 +2398,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2373,11 +2415,11 @@
     <col min="3" max="3" width="8.575" style="1"/>
     <col min="4" max="5" width="12.625" style="1"/>
     <col min="6" max="6" width="13.3916666666667" style="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2385,16 +2427,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2403,21 +2445,24 @@
         <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2428,13 +2473,13 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2445,100 +2490,100 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="5">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2554,23 +2599,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2578,10 +2623,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2590,9 +2635,12 @@
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2609,14 +2657,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2624,7 +2672,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2632,16 +2680,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>145</v>
@@ -2650,21 +2698,45 @@
         <v>146</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2677,85 +2749,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2805,22 +2890,107 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A6">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2834,7 +3004,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
@@ -2918,25 +3088,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.9583333333333" style="1"/>
     <col min="2" max="2" width="18.2083333333333" style="1"/>
-    <col min="3" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="3" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2953,58 +3123,61 @@
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5">
+  <autoFilter ref="A1:G5">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3016,23 +3189,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1030" width="8.575" style="1"/>
-    <col min="1031" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3040,34 +3213,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
@@ -3076,45 +3249,48 @@
         <v>35</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="5">
+        <v>62</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3130,14 +3306,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -3146,11 +3322,11 @@
     <col min="5" max="5" width="13.3916666666667" style="1"/>
     <col min="6" max="6" width="8.575" style="1"/>
     <col min="7" max="7" width="14.7833333333333" style="1"/>
-    <col min="8" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="8" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3158,19 +3334,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3179,70 +3355,73 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="5">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6">
         <v>348724.1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="5">
+        <v>76</v>
+      </c>
+      <c r="E3" s="6">
         <v>40031.7</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3258,24 +3437,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="1"/>
-    <col min="7" max="1025" width="9.10833333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3283,13 +3462,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3298,52 +3477,55 @@
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3359,23 +3541,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3383,19 +3565,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3404,61 +3586,64 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3474,23 +3659,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3498,10 +3683,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3509,10 +3694,13 @@
       <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -215,7 +215,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -230,7 +230,7 @@
     <t>transcription</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>mdl_translation</t>
@@ -287,19 +287,19 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -332,6 +332,9 @@
     <t>AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
     <t>C10932H12244O6763N4389P1143</t>
   </si>
   <si>
@@ -459,9 +462,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_trn</t>
@@ -616,11 +616,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -654,15 +654,54 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,51 +714,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -743,14 +737,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -758,16 +751,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,23 +795,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,25 +825,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +879,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,127 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,69 +1016,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1099,11 +1036,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,138 +1119,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
@@ -1905,25 +1905,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
@@ -1952,13 +1952,13 @@
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -1972,18 +1972,18 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -1992,18 +1992,18 @@
         <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
@@ -2012,13 +2012,13 @@
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2041,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2066,19 +2066,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2098,22 +2098,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2128,16 +2126,14 @@
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2149,19 +2145,17 @@
         <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2173,19 +2167,17 @@
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2234,13 +2226,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>124</v>
@@ -2297,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
@@ -2361,13 +2353,13 @@
         <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>18</v>
@@ -2405,7 +2397,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2436,7 +2428,7 @@
         <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2461,9 +2453,7 @@
       <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
@@ -2478,9 +2468,7 @@
       <c r="B3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -2499,7 +2487,7 @@
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -2513,7 +2501,7 @@
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2562,9 +2550,7 @@
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
@@ -2575,9 +2561,6 @@
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
@@ -2601,7 +2584,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2623,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2686,7 +2669,7 @@
         <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>69</v>
@@ -2781,7 +2764,7 @@
         <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>69</v>
@@ -2924,7 +2907,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3095,7 +3078,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -3196,7 +3179,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3308,12 +3291,12 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -3381,21 +3364,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6">
         <v>40031.7</v>
@@ -3404,24 +3387,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3462,13 +3445,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3488,7 +3471,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>70</v>
@@ -3497,35 +3480,35 @@
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3531,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -3565,19 +3548,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3597,10 +3580,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>62</v>
@@ -3609,15 +3592,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
@@ -3626,15 +3609,15 @@
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>62</v>
@@ -3643,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3683,10 +3666,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -616,11 +616,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -662,12 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -677,13 +674,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,9 +742,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,13 +759,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,44 +773,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,22 +789,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,13 +825,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +891,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,127 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,17 +1019,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,8 +1046,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,26 +1078,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,149 +1116,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2106,7 +2106,6 @@
       <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>117</v>
       </c>
@@ -2128,7 +2127,6 @@
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>119</v>
       </c>
@@ -2150,7 +2148,6 @@
       <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>121</v>
       </c>
@@ -2172,7 +2169,6 @@
       <c r="D5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2453,7 +2449,6 @@
       <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
@@ -2468,7 +2463,6 @@
       <c r="B3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -2987,10 +2981,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3291,7 +3285,7 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
@@ -45,10 +47,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
@@ -111,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -152,432 +154,426 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>mdl_transcription</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>mdl_translation</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>mdl_rna_degradation</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t>protein degradation</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <t>RNA (MPN001)</t>
+  </si>
+  <si>
+    <t>AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>C10932H12244O6763N4389P1143</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>protein (MPN001)</t>
+  </si>
+  <si>
+    <t>MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>rna[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>prot[c]</t>
+  </si>
+  <si>
+    <t>cell[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-rna[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-cell[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>==&gt; rna[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>==&gt; prot[c]</t>
+  </si>
+  <si>
+    <t>rna_degradation</t>
+  </si>
+  <si>
+    <t>rna[c] ==&gt;</t>
+  </si>
+  <si>
+    <t>prot_degradation</t>
+  </si>
+  <si>
+    <t>prot[c] ==&gt;</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transcription-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn</t>
+  </si>
+  <si>
+    <t>translation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trl * (rna[c] / (K_m_trl * Avogadro * volume_c + rna[c]))</t>
+  </si>
+  <si>
+    <t>rna_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_rna_deg * rna[c]</t>
+  </si>
+  <si>
+    <t>prot_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg * prot[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
+  </si>
+  <si>
+    <t>cell cycle length</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>fraction dry weight</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_cat_trl</t>
+  </si>
+  <si>
+    <t>k_cat_rna_deg</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg</t>
+  </si>
+  <si>
+    <t>K_m_trl</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>mdl_transcription</t>
-  </si>
-  <si>
-    <t>transcription</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>mdl_translation</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t>mdl_rna_degradation</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t>protein degradation</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>rna</t>
-  </si>
-  <si>
-    <t>RNA (MPN001)</t>
-  </si>
-  <si>
-    <t>AUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAAAAAACAAACAUUAACCUUAACACGAUUGAUAAGAAAGAAUUCCCCAGAAUCCGUUUCAACCAAAACGUUGAUUUGAAGGAAUUUGAUGAACUUAAAAUCCAACACAGCCUUUUAACUAAAGGACUUAAAAAGAUUGCCCAUGCUGUUUCUACAUUUAGAGAAUCCACUAGAAAAUUCAACGGGGUUAACUUCAACGGUUCCAAUGGUAAACAAAUCUUUUUAGAGGCAUCGGAUUCUUAUAAGCUCUCUGUUUAUGAAAUCAAACAAAAAACCGAUCCAUUUAAUUUCAUUGUCGAAACUAAUCUUUUGAGCUUCAUCAAUUCUUUUAACCCUGAAGGUGGUGAUUUAAUCAGUAUCUUCUUCCGCAAAGAACACAAGGAUGAUUUAAGUACCGAAUUACUGAUUAAGUUAGAUAACUUCUUAAUUAACUACACCUCAAUUAACGAAAGCUUUCCGCGGGUAAUGCAGUUGUUUGACUUUGAACCAGAAACCAAAGUAACCAUUCAAAAAAACGAACUUAAAGAUGCAUUACAAAGAAUCUUGACGUUAGCUCAAAACGAGCGCUUCUUUCUCUGUGACAUGCAAGUAACCAACUCCCACCUCAAAAUUAAUUCCAACGUUCAAAACAUUGGUGCAUCCUUAGAAGAAGUUACUUGCCUUAAGUUCGAAGGUCACAAACUCAACAUCGCUGUUAAUGCGCUUUCCCUCUUGGAACACAUUGACUCAUUUGAUACUGAUGAAAUUGAGCUUUACUUCCAGGGCAGUAACAAAUACUUUUUAAUUAGUUCGAACAACGAACCUGAACUUAAAGAAAUCCUAGUUCCUUCCAAGUAA</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>C10932H12244O6763N4389P1143</t>
-  </si>
-  <si>
-    <t>prot</t>
-  </si>
-  <si>
-    <t>protein (MPN001)</t>
-  </si>
-  <si>
-    <t>MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>rna[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>prot[c]</t>
-  </si>
-  <si>
-    <t>cell[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-rna[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-prot[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-cell[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>==&gt; rna[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>==&gt; prot[c]</t>
-  </si>
-  <si>
-    <t>rna_degradation</t>
-  </si>
-  <si>
-    <t>rna[c] ==&gt;</t>
-  </si>
-  <si>
-    <t>prot_degradation</t>
-  </si>
-  <si>
-    <t>prot[c] ==&gt;</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transcription-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn</t>
-  </si>
-  <si>
-    <t>translation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trl * (rna[c] / (K_m_trl * Avogadro * volume_c + rna[c]))</t>
-  </si>
-  <si>
-    <t>rna_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_rna_deg * rna[c]</t>
-  </si>
-  <si>
-    <t>prot_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg * prot[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>cell cycle length</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_cat_trl</t>
-  </si>
-  <si>
-    <t>k_cat_rna_deg</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg</t>
-  </si>
-  <si>
-    <t>K_m_trl</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -609,6 +605,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -616,11 +660,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -667,38 +711,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,23 +734,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,22 +758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +772,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -780,31 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,31 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +887,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +935,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,25 +959,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,49 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,31 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,11 +1063,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,35 +1128,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,157 +1155,142 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1677,12 +1721,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -1749,26 +1793,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1777,23 +1821,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1831,36 +1860,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1905,120 +1934,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2066,51 +2095,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2119,19 +2148,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2140,19 +2169,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2161,19 +2190,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2222,34 +2251,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2285,28 +2314,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2346,31 +2375,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2415,152 +2444,152 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1">
         <v>0.00770163533955495</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1">
         <v>0.0320901472481456</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
         <v>155370.480849579</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1">
         <v>431.58466902661</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1">
         <v>4.9569488988138e-8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2600,25 +2629,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2657,64 +2686,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2752,31 +2781,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2844,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2852,32 +2881,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5"/>
     </row>
@@ -2918,52 +2947,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2976,15 +3005,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3001,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -3011,7 +3179,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3019,15 +3187,15 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
@@ -3035,25 +3203,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3091,66 +3259,66 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3190,72 +3358,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3264,10 +3432,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3311,45 +3479,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6">
         <v>348724.1</v>
@@ -3358,21 +3526,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6">
         <v>40031.7</v>
@@ -3381,24 +3549,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1">
         <v>30712200000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3439,70 +3607,70 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3542,85 +3710,85 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3660,25 +3828,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -568,6 +568,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -634,6 +637,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -647,9 +653,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -660,11 +663,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -711,6 +714,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -719,33 +729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,17 +760,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,7 +776,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,16 +791,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,15 +844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +872,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +956,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,157 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,17 +1129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1154,6 +1146,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1163,134 +1166,134 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2755,14 +2758,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2773,7 +2776,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2806,6 +2809,9 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2947,46 +2953,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3031,31 +3037,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3073,14 +3079,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3088,7 +3094,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3099,43 +3105,46 @@
         <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
@@ -93,22 +93,22 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$G$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$H$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$5</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$A$1:$E$4</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$D$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$J$6</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$A$1:$G$5</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$H$10</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$G$5</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$3</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$5</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$A$1:$E$4</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$2</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$6</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$G$5</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$H$10</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -742,14 +742,14 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,7 +759,7 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,7 +1150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1167,42 +1167,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="20" t="n"/>
@@ -1213,7 +1209,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="20" t="n"/>
@@ -1224,220 +1220,231 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="20" t="n"/>
       <c r="C6" s="20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="20" t="n"/>
       <c r="C9" s="20" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="20" t="n"/>
       <c r="C10" s="20" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="20" t="n"/>
       <c r="C11" s="20" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="20" t="n"/>
       <c r="C12" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="20" t="n"/>
       <c r="C13" s="20" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="20" t="n"/>
       <c r="C14" s="20" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="20" t="n"/>
       <c r="C15" s="20" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="20" t="n"/>
       <c r="C16" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="20" t="n"/>
       <c r="C18" s="20" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="20" t="n"/>
       <c r="C19" s="20" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="20" t="n"/>
       <c r="C20" s="20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="20" t="n"/>
       <c r="C21" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="20" t="n"/>
       <c r="C22" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="20" t="n"/>
       <c r="C23" s="20" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="20" t="n"/>
       <c r="C24" s="20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="20" t="n"/>
       <c r="C25" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1503,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1588,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:AMM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
@@ -1686,7 +1693,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3976,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4196,7 +4203,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4299,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4387,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4749,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4824,7 +4831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5010,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5171,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5539,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5634,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5754,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5844,7 +5851,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5949,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:AMR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6088,7 +6095,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8362,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8557,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8718,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
@@ -93,22 +93,22 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$G$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$H$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$5</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$A$1:$E$4</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$D$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$J$6</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$A$1:$G$5</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$H$10</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$G$5</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$3</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$5</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$A$1:$E$4</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$2</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$6</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$G$5</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$H$10</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -742,14 +742,14 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,7 +759,7 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,7 +1150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1167,42 +1167,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="20" t="n"/>
@@ -1213,7 +1209,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="20" t="n"/>
@@ -1224,220 +1220,231 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="20" t="n"/>
       <c r="C6" s="20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="20" t="n"/>
       <c r="C9" s="20" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="20" t="n"/>
       <c r="C10" s="20" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="20" t="n"/>
       <c r="C11" s="20" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="20" t="n"/>
       <c r="C12" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="20" t="n"/>
       <c r="C13" s="20" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="20" t="n"/>
       <c r="C14" s="20" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="20" t="n"/>
       <c r="C15" s="20" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="20" t="n"/>
       <c r="C16" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="20" t="n"/>
       <c r="C18" s="20" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="20" t="n"/>
       <c r="C19" s="20" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="20" t="n"/>
       <c r="C20" s="20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="20" t="n"/>
       <c r="C21" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="20" t="n"/>
       <c r="C22" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="20" t="n"/>
       <c r="C23" s="20" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="20" t="n"/>
       <c r="C24" s="20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="20" t="n"/>
       <c r="C25" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1503,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1588,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:AMM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
@@ -1686,7 +1693,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3976,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4196,7 +4203,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4299,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4387,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4749,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4824,7 +4831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5010,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5171,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5539,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5634,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5754,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5844,7 +5851,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5949,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:AMR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6088,7 +6095,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8362,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8557,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8718,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13960" tabRatio="993"/>
+    <workbookView xWindow="-24940" yWindow="1800" windowWidth="24940" windowHeight="15700" tabRatio="993" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Functions'!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'[16]!!Initial species concentration'!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'[1]!!Initial species concentration'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Model'!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Observables'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$H$10</definedName>
@@ -72,69 +72,68 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Taxon'!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">[4]Compartments!$A$2:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'[11]dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'[12]dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">[8]Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">[2]Compartments!$A$2:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'[3]dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">'[4]dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">[5]Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'[6]Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">[1]Model!$A$1:$B$7</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">[7]Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="16">[13]Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">[7]Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">[8]Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">[9]Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="12">'[10]Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="11">[9]Reactions!$A$2:$J$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="21">[15]References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'[5]Species types'!$A$2:$K$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">[11]Reactions!$A$2:$J$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">[12]References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'[13]Species types'!$A$2:$K$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="17">'[14]Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">[3]Submodels!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">[2]Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">[4]Compartments!$A$2:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'[11]dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'[12]dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">[8]Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">[15]Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">[16]Taxon!$A$1:$A$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">[2]Compartments!$A$2:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'[3]dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">'[4]dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">[5]Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">'[6]Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">[1]Model!$A$1:$B$7</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">[7]Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="16">[13]Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">[7]Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">[8]Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">[9]Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="12">'[10]Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="11">[9]Reactions!$A$2:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="21">[15]References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'[5]Species types'!$A$2:$K$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">[11]Reactions!$A$2:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">[12]References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'[13]Species types'!$A$2:$K$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="17">'[14]Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">[3]Submodels!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">[2]Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">[4]Compartments!$A$2:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'[11]dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'[12]dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">[8]Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">[15]Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">[16]Taxon!$A$1:$A$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">[2]Compartments!$A$2:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'[3]dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'[4]dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">[5]Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[6]Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">[1]Model!$A$1:$B$7</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">[7]Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">[13]Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">[7]Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">[8]Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">[9]Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'[10]Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">[9]Reactions!$A$2:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">[15]References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'[5]Species types'!$A$2:$K$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">[11]Reactions!$A$2:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">[12]References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'[13]Species types'!$A$2:$K$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="17">'[14]Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">[3]Submodels!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">[2]Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">[4]Compartments!$A$2:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'[11]dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'[12]dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">[8]Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">[15]Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">[16]Taxon!$A$1:$A$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">[2]Compartments!$A$2:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'[3]dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'[4]dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">[5]Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'[6]Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">[1]Model!$A$1:$B$7</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">[7]Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">[13]Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">[7]Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">[8]Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">[9]Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'[10]Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">[9]Reactions!$A$2:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">[15]References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'[5]Species types'!$A$2:$K$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">[11]Reactions!$A$2:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">[12]References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'[13]Species types'!$A$2:$K$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">'[14]Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">[3]Submodels!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">[2]Taxon!$A$1:$A$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">[15]Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">[16]Taxon!$A$1:$A$5</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1018,7 +1017,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Model"/>
+      <sheetName val="!!Initial species concentration"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1044,7 +1043,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="dFBA objective reactions"/>
+      <sheetName val="Reactions"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1057,7 +1056,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="dFBA objective species"/>
+      <sheetName val="References"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1070,7 +1069,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Parameters"/>
+      <sheetName val="Species types"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1096,7 +1095,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="References"/>
+      <sheetName val="Submodels"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1109,7 +1108,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="!!Initial species concentration"/>
+      <sheetName val="Taxon"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1122,7 +1121,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Taxon"/>
+      <sheetName val="Compartments"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1135,7 +1134,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Submodels"/>
+      <sheetName val="dFBA objective reactions"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1148,7 +1147,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Compartments"/>
+      <sheetName val="dFBA objective species"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1161,7 +1160,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Species types"/>
+      <sheetName val="Functions"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1187,7 +1186,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Observables"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1200,7 +1199,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Functions"/>
+      <sheetName val="Observables"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1213,7 +1212,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Reactions"/>
+      <sheetName val="Parameters"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1482,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -1756,11 +1755,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1815,11 +1815,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1887,11 +1888,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,8 +1901,9 @@
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="3" customWidth="1"/>
     <col min="7" max="1027" width="8.5" style="3" customWidth="1"/>
     <col min="1028" max="1028" width="9" style="3" customWidth="1"/>
     <col min="1029" max="16384" width="9" style="3"/>
@@ -4093,11 +4096,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4106,7 +4110,7 @@
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="3" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="3" customWidth="1"/>
     <col min="12" max="13" width="12.6640625" style="3" customWidth="1"/>
@@ -4120,7 +4124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -5491,18 +5495,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
-    <col min="3" max="1026" width="8.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.5" style="3" customWidth="1"/>
     <col min="1027" max="1027" width="9" style="3" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="3"/>
   </cols>
@@ -5593,11 +5598,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMR4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7788,11 +7794,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7933,11 +7940,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8041,11 +8049,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/examples/transcription_translation_hybrid_model/model.xlsx
+++ b/examples/transcription_translation_hybrid_model/model.xlsx
@@ -1119,7 +1119,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5372,7 +5372,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
